--- a/ofc/estimates/गणपति ढिकुरेपाटी संरक्षण तथा ढिकुरेपाटी माझ गाँउ सडक/गणपति ढिकुरेपाटी संरक्षण.xlsx
+++ b/ofc/estimates/गणपति ढिकुरेपाटी संरक्षण तथा ढिकुरेपाटी माझ गाँउ सडक/गणपति ढिकुरेपाटी संरक्षण.xlsx
@@ -283,73 +283,73 @@
     <t>MT</t>
   </si>
   <si>
+    <t>Project:- गणपति ढिकुरेपाटी संरक्षण</t>
+  </si>
+  <si>
+    <t>-wall</t>
+  </si>
+  <si>
+    <t>sqm</t>
+  </si>
+  <si>
+    <t>k'/fgf] ;km]{;df XjfO{6jfz ug]{ sfd</t>
+  </si>
+  <si>
+    <t>-deduction for door</t>
+  </si>
+  <si>
+    <t>-deduction for window</t>
+  </si>
+  <si>
+    <t>;'Vvf O{6f RofK6f] 5fKg] sfd</t>
+  </si>
+  <si>
+    <t>-For stone masonary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g/d k|sf/sf] Sn] / l;N6L df6f]df ;j} lsl;dsf] vGg] sfd </t>
+  </si>
+  <si>
+    <t>-for footing of wall at truss structure</t>
+  </si>
+  <si>
+    <t>3fF; sf6\g] To;sf] h/f lemSg], l9:sf] k'm6fpg] / n]en u/L :yn ;kmf ug]{ ;a} jf]sgL ;d]t</t>
+  </si>
+  <si>
+    <t>-Surrounding environment</t>
+  </si>
+  <si>
+    <t>cf/=;L=;L= nflu kmnfd] 808L sf6\g], df]8\g] #) dL6/ ;Dd</t>
+  </si>
+  <si>
+    <t>Unit wt. (kg/m)</t>
+  </si>
+  <si>
+    <t>Total wt. (kg)</t>
+  </si>
+  <si>
+    <t>Total wt. (MT)</t>
+  </si>
+  <si>
+    <t>-For bands</t>
+  </si>
+  <si>
+    <t>-For stirrups</t>
+  </si>
+  <si>
+    <t>-For sill/lintel/DPC band</t>
+  </si>
+  <si>
+    <t>!@=% dL=dL= l;d]G6 afn'jf -!M$_ Knfi6/</t>
+  </si>
+  <si>
+    <t>-deduction for entrance</t>
+  </si>
+  <si>
+    <t>-as of plaster</t>
+  </si>
+  <si>
     <t>Date:2081/09/28</t>
-  </si>
-  <si>
-    <t>Project:- गणपति ढिकुरेपाटी संरक्षण</t>
-  </si>
-  <si>
-    <t>-wall</t>
-  </si>
-  <si>
-    <t>sqm</t>
-  </si>
-  <si>
-    <t>k'/fgf] ;km]{;df XjfO{6jfz ug]{ sfd</t>
-  </si>
-  <si>
-    <t>-deduction for door</t>
-  </si>
-  <si>
-    <t>-deduction for window</t>
-  </si>
-  <si>
-    <t>;'Vvf O{6f RofK6f] 5fKg] sfd</t>
-  </si>
-  <si>
-    <t>-For stone masonary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">g/d k|sf/sf] Sn] / l;N6L df6f]df ;j} lsl;dsf] vGg] sfd </t>
-  </si>
-  <si>
-    <t>-for footing of wall at truss structure</t>
-  </si>
-  <si>
-    <t>3fF; sf6\g] To;sf] h/f lemSg], l9:sf] k'm6fpg] / n]en u/L :yn ;kmf ug]{ ;a} jf]sgL ;d]t</t>
-  </si>
-  <si>
-    <t>-Surrounding environment</t>
-  </si>
-  <si>
-    <t>cf/=;L=;L= nflu kmnfd] 808L sf6\g], df]8\g] #) dL6/ ;Dd</t>
-  </si>
-  <si>
-    <t>Unit wt. (kg/m)</t>
-  </si>
-  <si>
-    <t>Total wt. (kg)</t>
-  </si>
-  <si>
-    <t>Total wt. (MT)</t>
-  </si>
-  <si>
-    <t>-For bands</t>
-  </si>
-  <si>
-    <t>-For stirrups</t>
-  </si>
-  <si>
-    <t>-For sill/lintel/DPC band</t>
-  </si>
-  <si>
-    <t>!@=% dL=dL= l;d]G6 afn'jf -!M$_ Knfi6/</t>
-  </si>
-  <si>
-    <t>-deduction for entrance</t>
-  </si>
-  <si>
-    <t>-as of plaster</t>
   </si>
 </sst>
 </file>
@@ -729,6 +729,33 @@
     <xf numFmtId="166" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -745,45 +772,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -796,8 +784,20 @@
     <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1437,90 +1437,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
     </row>
     <row r="2" spans="1:11" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
     </row>
     <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
     </row>
     <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="71" t="e">
+      <c r="C6" s="80" t="e">
         <f>F18</f>
         <v>#REF!</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="81"/>
       <c r="E6" s="9"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -1528,11 +1528,11 @@
         <v>20</v>
       </c>
       <c r="I6" s="8"/>
-      <c r="J6" s="71" t="e">
+      <c r="J6" s="80" t="e">
         <f>I18</f>
         <v>#REF!</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="81"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
@@ -1541,77 +1541,77 @@
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="I7" s="81" t="s">
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="I7" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
     </row>
     <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="79" t="e">
+      <c r="A8" s="74" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="I8" s="82" t="s">
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="I8" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="82"/>
-      <c r="K8" s="82"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="83" t="e">
+      <c r="A9" s="78" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B9" s="83"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="I9" s="82" t="s">
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="I9" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="82"/>
-      <c r="K9" s="82"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="77" t="s">
+      <c r="A11" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="77" t="s">
+      <c r="C11" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="84" t="s">
+      <c r="D11" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84" t="s">
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="84"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="77" t="s">
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="78" t="s">
+      <c r="K11" s="73" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="77"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="77"/>
+      <c r="A12" s="72"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="72"/>
       <c r="D12" s="11" t="s">
         <v>26</v>
       </c>
@@ -1630,8 +1630,8 @@
       <c r="I12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="77"/>
-      <c r="K12" s="78"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="73"/>
     </row>
     <row r="13" spans="1:11" s="1" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A13" s="27" t="e">
@@ -1793,6 +1793,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="A8:F8"/>
@@ -1806,13 +1813,6 @@
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1830,8 +1830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U147"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1849,116 +1849,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
     </row>
     <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
     </row>
     <row r="5" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
     </row>
     <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="79" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="A6" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="86" t="s">
+      <c r="H6" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="91"/>
       <c r="O6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="91" t="s">
+      <c r="A7" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="91"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="92" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92"/>
+      <c r="H7" s="88" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -2139,7 +2139,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="66" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="20"/>
@@ -2161,7 +2161,7 @@
     <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18"/>
       <c r="B15" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C15" s="19">
         <v>2</v>
@@ -2253,7 +2253,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="20"/>
@@ -2268,7 +2268,7 @@
     <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="18"/>
       <c r="B20" s="38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C20" s="19">
         <v>1</v>
@@ -2328,7 +2328,7 @@
         <v>7.391008838768669</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I22" s="23">
         <v>21.16</v>
@@ -2357,7 +2357,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="67" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="20"/>
@@ -2436,7 +2436,7 @@
         <v>7.0042669917708018</v>
       </c>
       <c r="H27" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I27" s="23">
         <v>1014.97</v>
@@ -2496,15 +2496,15 @@
       <c r="K30" s="21"/>
       <c r="M30" s="25"/>
       <c r="N30" s="1"/>
-      <c r="O30" s="85" t="s">
-        <v>66</v>
-      </c>
-      <c r="P30" s="85"/>
-      <c r="Q30" s="85"/>
-      <c r="R30" s="85"/>
-      <c r="S30" s="85"/>
-      <c r="T30" s="85"/>
-      <c r="U30" s="85"/>
+      <c r="O30" s="90" t="s">
+        <v>65</v>
+      </c>
+      <c r="P30" s="90"/>
+      <c r="Q30" s="90"/>
+      <c r="R30" s="90"/>
+      <c r="S30" s="90"/>
+      <c r="T30" s="90"/>
+      <c r="U30" s="90"/>
     </row>
     <row r="31" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="18"/>
@@ -2625,7 +2625,7 @@
     <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="18"/>
       <c r="B36" s="38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C36" s="37">
         <v>1</v>
@@ -2763,7 +2763,7 @@
     <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="18"/>
       <c r="B40" s="38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C40" s="48">
         <v>2</v>
@@ -2902,7 +2902,7 @@
     <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="18"/>
       <c r="B46" s="38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C46" s="37">
         <v>1</v>
@@ -2995,7 +2995,7 @@
         <v>8</v>
       </c>
       <c r="B50" s="66" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C50" s="19"/>
       <c r="D50" s="20"/>
@@ -3010,7 +3010,7 @@
     <row r="51" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="18"/>
       <c r="B51" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C51" s="37">
         <v>1</v>
@@ -3060,7 +3060,7 @@
     <row r="53" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="18"/>
       <c r="B53" s="38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C53" s="37">
         <v>-2</v>
@@ -3110,7 +3110,7 @@
     <row r="55" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="18"/>
       <c r="B55" s="38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C55" s="37">
         <v>-2</v>
@@ -3136,7 +3136,7 @@
     <row r="56" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="18"/>
       <c r="B56" s="38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C56" s="37">
         <v>1</v>
@@ -3167,7 +3167,7 @@
         <v>164.19110842482382</v>
       </c>
       <c r="H57" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I57" s="23">
         <v>20.82</v>
@@ -3354,7 +3354,7 @@
     <row r="65" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="18"/>
       <c r="B65" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C65" s="48">
         <v>-1</v>
@@ -3442,7 +3442,7 @@
         <v>10</v>
       </c>
       <c r="B69" s="67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C69" s="19" t="s">
         <v>7</v>
@@ -3451,13 +3451,13 @@
         <v>53</v>
       </c>
       <c r="E69" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="F69" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="F69" s="69" t="s">
+      <c r="G69" s="69" t="s">
         <v>70</v>
-      </c>
-      <c r="G69" s="69" t="s">
-        <v>71</v>
       </c>
       <c r="H69" s="22"/>
       <c r="I69" s="23"/>
@@ -3467,7 +3467,7 @@
     <row r="70" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="18"/>
       <c r="B70" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C70" s="19">
         <v>4</v>
@@ -3496,7 +3496,7 @@
     <row r="71" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="18"/>
       <c r="B71" s="38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C71" s="19">
         <f>44+28+28+44</f>
@@ -3583,8 +3583,8 @@
       <c r="A75" s="18">
         <v>11</v>
       </c>
-      <c r="B75" s="94" t="s">
-        <v>75</v>
+      <c r="B75" s="71" t="s">
+        <v>74</v>
       </c>
       <c r="C75" s="19"/>
       <c r="D75" s="20"/>
@@ -3599,7 +3599,7 @@
     <row r="76" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="18"/>
       <c r="B76" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C76" s="37">
         <v>2</v>
@@ -3658,7 +3658,7 @@
         <v>44.939817128924112</v>
       </c>
       <c r="H78" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I78" s="23">
         <v>405.86</v>
@@ -3795,11 +3795,11 @@
       <c r="B85" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C85" s="90">
+      <c r="C85" s="86">
         <f>J83</f>
         <v>563634.92807013518</v>
       </c>
-      <c r="D85" s="90"/>
+      <c r="D85" s="86"/>
       <c r="E85" s="40">
         <v>100</v>
       </c>
@@ -3815,10 +3815,10 @@
       <c r="B86" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C86" s="93">
+      <c r="C86" s="89">
         <v>500000</v>
       </c>
-      <c r="D86" s="93"/>
+      <c r="D86" s="89"/>
       <c r="E86" s="40"/>
       <c r="F86" s="50"/>
       <c r="G86" s="49"/>
@@ -3832,11 +3832,11 @@
       <c r="B87" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C87" s="93">
+      <c r="C87" s="89">
         <f>C86-C89-C90</f>
         <v>475000</v>
       </c>
-      <c r="D87" s="93"/>
+      <c r="D87" s="89"/>
       <c r="E87" s="40">
         <f>C87/C85*100</f>
         <v>84.274408192973809</v>
@@ -3853,11 +3853,11 @@
       <c r="B88" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C88" s="90">
+      <c r="C88" s="86">
         <f>C85-C87</f>
         <v>88634.928070135182</v>
       </c>
-      <c r="D88" s="90"/>
+      <c r="D88" s="86"/>
       <c r="E88" s="40">
         <f>100-E87</f>
         <v>15.725591807026191</v>
@@ -3874,11 +3874,11 @@
       <c r="B89" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C89" s="90">
+      <c r="C89" s="86">
         <f>C86*0.03</f>
         <v>15000</v>
       </c>
-      <c r="D89" s="90"/>
+      <c r="D89" s="86"/>
       <c r="E89" s="40">
         <v>3</v>
       </c>
@@ -3894,11 +3894,11 @@
       <c r="B90" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C90" s="90">
+      <c r="C90" s="86">
         <f>C86*0.02</f>
         <v>10000</v>
       </c>
-      <c r="D90" s="90"/>
+      <c r="D90" s="86"/>
       <c r="E90" s="40">
         <v>2</v>
       </c>
@@ -3980,6 +3980,14 @@
     <row r="147" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="O30:U30"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C89:D89"/>
     <mergeCell ref="C90:D90"/>
     <mergeCell ref="A7:F7"/>
@@ -3988,17 +3996,9 @@
     <mergeCell ref="C86:D86"/>
     <mergeCell ref="C87:D87"/>
     <mergeCell ref="C88:D88"/>
-    <mergeCell ref="O30:U30"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;LPrepared By:&amp;CChecked By:&amp;RApproved By:</oddFooter>
   </headerFooter>
